--- a/elaborati MPI/elaborato_2/prodotto_matrice_vettore_colonne/test_valutazione_elab2_prodotto_colonne.xlsx
+++ b/elaborati MPI/elaborato_2/prodotto_matrice_vettore_colonne/test_valutazione_elab2_prodotto_colonne.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Desktop/CP/GIT/Calcolo-Parallelo/elaborati MPI/elaborato_2/prodotto_matrice_vettore_colonne/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4BE17-0A04-744D-93BD-FCF98AC48A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -58,31 +67,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,11 +106,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="11">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -108,16 +130,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -127,6 +154,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -135,19 +163,29 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -156,148 +194,450 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.86"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="3" max="3" width="30.14"/>
-    <col customWidth="1" min="4" max="4" width="26.29"/>
-    <col customWidth="1" min="5" max="5" width="26.43"/>
-    <col customWidth="1" min="6" max="6" width="24.86"/>
-    <col customWidth="1" min="7" max="7" width="30.86"/>
-    <col customWidth="1" min="8" max="8" width="15.71"/>
-    <col customWidth="1" min="9" max="9" width="15.0"/>
-    <col customWidth="1" min="10" max="10" width="18.43"/>
-    <col customWidth="1" min="11" max="11" width="18.29"/>
-    <col customWidth="1" min="12" max="26" width="8.86"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -324,7 +664,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -353,7 +693,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -384,17 +724,17 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E4" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -417,22 +757,22 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="10">
-        <f t="shared" ref="C5:E5" si="1">C$68/C47</f>
-        <v>1.974911438</v>
+        <f>C$68/C47</f>
+        <v>1.8828844306536265</v>
       </c>
       <c r="D5" s="10">
-        <f t="shared" si="1"/>
-        <v>1.989510172</v>
+        <f t="shared" ref="C5:E5" si="0">D$68/D47</f>
+        <v>1.9229598095841851</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="1"/>
-        <v>1.934779964</v>
+        <f t="shared" si="0"/>
+        <v>1.9347799637278278</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -455,22 +795,22 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10">
-        <f t="shared" ref="C6:E6" si="2">C$68/C48</f>
-        <v>3.826747652</v>
+        <f t="shared" ref="C6:E6" si="1">C$68/C48</f>
+        <v>3.4956878286972493</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" si="2"/>
-        <v>3.936598977</v>
+        <f t="shared" si="1"/>
+        <v>3.8316446265381154</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="2"/>
-        <v>3.939619383</v>
+        <f t="shared" si="1"/>
+        <v>3.9396193833384054</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -493,22 +833,22 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" ref="C7:E7" si="3">C$68/C49</f>
-        <v>6.770493768</v>
+        <f t="shared" ref="C7:E7" si="2">C$68/C49</f>
+        <v>6.7704937679770012</v>
       </c>
       <c r="D7" s="10">
-        <f t="shared" si="3"/>
-        <v>7.622699668</v>
+        <f t="shared" si="2"/>
+        <v>7.6226996677341745</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="3"/>
-        <v>7.662651865</v>
+        <f t="shared" si="2"/>
+        <v>7.6626518648318216</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -531,22 +871,22 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C8" s="14">
-        <f t="shared" ref="C8:E8" si="4">C$68/C50</f>
-        <v>4.126186882</v>
+        <f t="shared" ref="C8:E8" si="3">C$68/C50</f>
+        <v>4.1261868822125809</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" si="4"/>
-        <v>11.44622622</v>
+        <f t="shared" si="3"/>
+        <v>11.446226222519716</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="4"/>
-        <v>12.02375735</v>
+        <f t="shared" si="3"/>
+        <v>12.023757348116462</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -569,7 +909,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -598,17 +938,17 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="7">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="8">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -631,22 +971,22 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10">
-        <f t="shared" ref="C11:E11" si="5">C$69/C53</f>
-        <v>1.765957447</v>
+        <f t="shared" ref="C11:E11" si="4">C$69/C53</f>
+        <v>1.7659574468066119</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" si="5"/>
-        <v>1.971984888</v>
+        <f t="shared" si="4"/>
+        <v>1.971984888113909</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="5"/>
-        <v>1.980858387</v>
+        <f t="shared" si="4"/>
+        <v>1.9808583873908019</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -669,22 +1009,22 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10">
-        <f t="shared" ref="C12:E12" si="6">C$69/C54</f>
-        <v>2.150259067</v>
+        <f t="shared" ref="C12:E12" si="5">C$69/C54</f>
+        <v>2.1502590673565334</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" si="6"/>
-        <v>3.88503378</v>
+        <f t="shared" si="5"/>
+        <v>3.8850337799153425</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="6"/>
-        <v>3.986705454</v>
+        <f t="shared" si="5"/>
+        <v>3.9867054535961359</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -707,22 +1047,22 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" s="10">
-        <f t="shared" ref="C13:E13" si="7">C$69/C55</f>
-        <v>2.922535211</v>
+        <f t="shared" ref="C13:E13" si="6">C$69/C55</f>
+        <v>2.9225352112680634</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" si="7"/>
-        <v>7.354866681</v>
+        <f t="shared" si="6"/>
+        <v>7.3548666811186187</v>
       </c>
       <c r="E13" s="12">
-        <f t="shared" si="7"/>
-        <v>7.925370299</v>
+        <f t="shared" si="6"/>
+        <v>7.9253702987180903</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -745,22 +1085,22 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="8">C$69/C56</f>
-        <v>0.349620893</v>
+        <f t="shared" ref="C14:E14" si="7">C$69/C56</f>
+        <v>0.34962089300735499</v>
       </c>
       <c r="D14" s="15">
-        <f t="shared" si="8"/>
-        <v>12.19992808</v>
+        <f t="shared" si="7"/>
+        <v>12.199928083424044</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="8"/>
-        <v>10.34834656</v>
+        <f t="shared" si="7"/>
+        <v>12.392542777184635</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -783,7 +1123,7 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -814,17 +1154,17 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D16" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E16" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -847,22 +1187,22 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
-        <f t="shared" ref="C17:E17" si="9">C$70/C59</f>
-        <v>1.996003216</v>
+        <f t="shared" ref="C17:E17" si="8">C$70/C59</f>
+        <v>1.9471293769444964</v>
       </c>
       <c r="D17" s="10">
-        <f t="shared" si="9"/>
-        <v>1.999608396</v>
+        <f t="shared" si="8"/>
+        <v>1.9505784159811657</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="9"/>
-        <v>1.976552946</v>
+        <f t="shared" si="8"/>
+        <v>1.9765529460965823</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -885,22 +1225,22 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="10">
-        <f t="shared" ref="C18:E18" si="10">C$70/C60</f>
-        <v>3.96200432</v>
+        <f t="shared" ref="C18:E18" si="9">C$70/C60</f>
+        <v>3.864991268625567</v>
       </c>
       <c r="D18" s="10">
-        <f t="shared" si="10"/>
-        <v>3.996763951</v>
+        <f t="shared" si="9"/>
+        <v>3.8987641328906699</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="10"/>
-        <v>3.978935531</v>
+        <f t="shared" si="9"/>
+        <v>3.9789355310099275</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -923,22 +1263,22 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:E19" si="11">C$70/C61</f>
-        <v>7.905436589</v>
+        <f t="shared" ref="C19:E19" si="10">C$70/C61</f>
+        <v>7.7118652390621376</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="11"/>
-        <v>7.933451135</v>
+        <f t="shared" si="10"/>
+        <v>7.7389245696052109</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="11"/>
-        <v>7.956380266</v>
+        <f t="shared" si="10"/>
+        <v>7.9563802663398562</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -961,22 +1301,22 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C20" s="14">
-        <f t="shared" ref="C20:E20" si="12">C$70/C62</f>
-        <v>15.32429773</v>
+        <f t="shared" ref="C20:E20" si="11">C$70/C62</f>
+        <v>14.949069243155989</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" si="12"/>
-        <v>15.76586898</v>
+        <f t="shared" si="11"/>
+        <v>15.379293159840385</v>
       </c>
       <c r="E20" s="16">
-        <f t="shared" si="12"/>
-        <v>15.84252453</v>
+        <f t="shared" si="11"/>
+        <v>15.84252452792931</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -999,7 +1339,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="10"/>
@@ -1026,7 +1366,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
@@ -1053,7 +1393,7 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -1082,7 +1422,7 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>1</v>
@@ -1113,17 +1453,17 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D25" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E25" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1146,22 +1486,22 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:E26" si="13">C5/$B$26</f>
-        <v>0.9874557192</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" si="13"/>
-        <v>0.9947550861</v>
+        <v>2</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" ref="C26:E26" si="12">C5/$B$26</f>
+        <v>0.94144221532681327</v>
+      </c>
+      <c r="D26" s="29">
+        <f t="shared" si="12"/>
+        <v>0.96147990479209255</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="13"/>
-        <v>0.9673899819</v>
+        <f t="shared" si="12"/>
+        <v>0.96738998186391389</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1184,22 +1524,22 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:E27" si="14">C6/$B$27</f>
-        <v>0.9566869129</v>
+        <f t="shared" ref="C27:E27" si="13">C6/$B$27</f>
+        <v>0.87392195717431231</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="14"/>
-        <v>0.9841497442</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" si="14"/>
-        <v>0.9849048458</v>
+        <f t="shared" si="13"/>
+        <v>0.95791115663452886</v>
+      </c>
+      <c r="E27" s="30">
+        <f t="shared" si="13"/>
+        <v>0.98490484583460136</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1222,22 +1562,22 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" ref="C28:E28" si="15">C7/$B$28</f>
-        <v>0.846311721</v>
+        <f t="shared" ref="C28:E28" si="14">C7/$B$28</f>
+        <v>0.84631172099712515</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="15"/>
-        <v>0.9528374585</v>
+        <f t="shared" si="14"/>
+        <v>0.95283745846677181</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="15"/>
-        <v>0.9578314831</v>
+        <f t="shared" si="14"/>
+        <v>0.9578314831039777</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1260,22 +1600,22 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29:E29" si="16">C8/$B$29</f>
-        <v>0.2578866801</v>
+        <f t="shared" ref="C29:E29" si="15">C8/$B$29</f>
+        <v>0.25788668013828631</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" si="16"/>
-        <v>0.7153891389</v>
+        <f t="shared" si="15"/>
+        <v>0.71538913890748224</v>
       </c>
       <c r="E29" s="16">
-        <f t="shared" si="16"/>
-        <v>0.7514848343</v>
+        <f t="shared" si="15"/>
+        <v>0.75148483425727886</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1298,7 +1638,7 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -1327,17 +1667,17 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D31" s="7">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="8">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1360,22 +1700,22 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C32" s="10">
-        <f t="shared" ref="C32:E32" si="17">C11/$B$26</f>
-        <v>0.8829787234</v>
-      </c>
-      <c r="D32" s="10">
-        <f t="shared" si="17"/>
-        <v>0.9859924441</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="29">
+        <f t="shared" ref="C32:E32" si="16">C11/$B$26</f>
+        <v>0.88297872340330597</v>
+      </c>
+      <c r="D32" s="29">
+        <f t="shared" si="16"/>
+        <v>0.98599244405695452</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="17"/>
-        <v>0.9904291937</v>
+        <f t="shared" si="16"/>
+        <v>0.99042919369540094</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1398,22 +1738,22 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" ref="C33:E33" si="18">C12/$B$27</f>
-        <v>0.5375647668</v>
+        <f t="shared" ref="C33:E33" si="17">C12/$B$27</f>
+        <v>0.53756476683913335</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="18"/>
-        <v>0.971258445</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="18"/>
-        <v>0.9966763634</v>
+        <f t="shared" si="17"/>
+        <v>0.97125844497883562</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" si="17"/>
+        <v>0.99667636339903398</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -1436,22 +1776,22 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" ref="C34:E34" si="19">C13/$B$28</f>
-        <v>0.3653169014</v>
+        <f t="shared" ref="C34:E34" si="18">C13/$B$28</f>
+        <v>0.36531690140850792</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="19"/>
-        <v>0.9193583351</v>
+        <f t="shared" si="18"/>
+        <v>0.91935833513982734</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="19"/>
-        <v>0.9906712873</v>
+        <f t="shared" si="18"/>
+        <v>0.99067128733976129</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -1474,22 +1814,22 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C35" s="14">
-        <f t="shared" ref="C35:E35" si="20">C14/$B$29</f>
-        <v>0.02185130581</v>
+        <f t="shared" ref="C35:E35" si="19">C14/$B$29</f>
+        <v>2.1851305812959687E-2</v>
       </c>
       <c r="D35" s="15">
-        <f t="shared" si="20"/>
-        <v>0.7624955052</v>
+        <f t="shared" si="19"/>
+        <v>0.76249550521400278</v>
       </c>
       <c r="E35" s="16">
-        <f t="shared" si="20"/>
-        <v>0.6467716599</v>
+        <f t="shared" si="19"/>
+        <v>0.77453392357403972</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -1512,7 +1852,7 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -1543,17 +1883,17 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D37" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E37" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1576,22 +1916,22 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C38" s="10">
-        <f t="shared" ref="C38:E38" si="21">C17/$B$26</f>
-        <v>0.998001608</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" si="21"/>
-        <v>0.9998041982</v>
+        <v>2</v>
+      </c>
+      <c r="C38" s="29">
+        <f t="shared" ref="C38:E38" si="20">C17/$B$26</f>
+        <v>0.9735646884722482</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.97528920799058283</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="21"/>
-        <v>0.988276473</v>
+        <f t="shared" si="20"/>
+        <v>0.98827647304829114</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -1614,22 +1954,22 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" ref="C39:E39" si="22">C18/$B$27</f>
-        <v>0.9905010799</v>
+        <f t="shared" ref="C39:E39" si="21">C18/$B$27</f>
+        <v>0.96624781715639174</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="22"/>
-        <v>0.9991909877</v>
-      </c>
-      <c r="E39" s="12">
-        <f t="shared" si="22"/>
-        <v>0.9947338828</v>
+        <f t="shared" si="21"/>
+        <v>0.97469103322266748</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="21"/>
+        <v>0.99473388275248187</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -1652,22 +1992,22 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" ref="C40:E40" si="23">C19/$B$28</f>
-        <v>0.9881795736</v>
+        <f t="shared" ref="C40:E40" si="22">C19/$B$28</f>
+        <v>0.9639831548827672</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="23"/>
-        <v>0.9916813919</v>
+        <f t="shared" si="22"/>
+        <v>0.96736557120065136</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="23"/>
-        <v>0.9945475333</v>
+        <f t="shared" si="22"/>
+        <v>0.99454753329248202</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -1690,22 +2030,22 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C41" s="14">
-        <f t="shared" ref="C41:E41" si="24">C20/$B$29</f>
-        <v>0.957768608</v>
+        <f t="shared" ref="C41:E41" si="23">C20/$B$29</f>
+        <v>0.93431682769724933</v>
       </c>
       <c r="D41" s="15">
-        <f t="shared" si="24"/>
-        <v>0.985366811</v>
+        <f t="shared" si="23"/>
+        <v>0.96120582249002406</v>
       </c>
       <c r="E41" s="16">
-        <f t="shared" si="24"/>
-        <v>0.990157783</v>
+        <f t="shared" si="23"/>
+        <v>0.99015778299558188</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -1728,7 +2068,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="10"/>
@@ -1755,7 +2095,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="10"/>
@@ -1782,7 +2122,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -1811,7 +2151,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>1</v>
@@ -1842,19 +2182,19 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D46" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E46" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1877,19 +2217,19 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="18">
-        <v>0.0204601287841797</v>
+        <v>2.1460128784179699E-2</v>
       </c>
       <c r="D47" s="18">
-        <v>0.288948059082031</v>
+        <v>0.29894805908203098</v>
       </c>
       <c r="E47" s="19">
-        <v>2.9648368358612</v>
+        <v>2.9648368358611998</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1912,19 +2252,19 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="18">
-        <v>0.01055908203125</v>
+        <v>1.1559082031249999E-2</v>
       </c>
       <c r="D48" s="18">
-        <v>0.146030902862548</v>
+        <v>0.150030902862548</v>
       </c>
       <c r="E48" s="19">
-        <v>1.45605611801147</v>
+        <v>1.4560561180114699</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1948,19 +2288,19 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C49" s="18">
-        <v>0.0059680938720703</v>
+        <v>5.9680938720703004E-3</v>
       </c>
       <c r="D49" s="18">
-        <v>0.0754148960113525</v>
+        <v>7.5414896011352497E-2</v>
       </c>
       <c r="E49" s="19">
-        <v>0.748605966567993</v>
+        <v>0.74860596656799305</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1984,19 +2324,19 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C50" s="20">
-        <v>0.0097928047180176</v>
+        <v>9.7928047180176007E-3</v>
       </c>
       <c r="D50" s="21">
-        <v>0.0502231121063232</v>
+        <v>5.0223112106323201E-2</v>
       </c>
       <c r="E50" s="22">
-        <v>0.477081060409545</v>
+        <v>0.47708106040954501</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>9</v>
@@ -2021,7 +2361,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -2051,19 +2391,19 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="D52" s="7">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="8">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2087,16 +2427,16 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C53" s="18">
-        <v>5.60283660889E-5</v>
+        <v>5.6028366088899998E-5</v>
       </c>
       <c r="D53" s="18">
-        <v>0.0041019916534424</v>
+        <v>4.1019916534424002E-3</v>
       </c>
       <c r="E53" s="19">
         <v>0.411716938018798</v>
@@ -2123,19 +2463,19 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C54" s="18">
-        <v>4.60147857666E-5</v>
+        <v>4.6014785766599997E-5</v>
       </c>
       <c r="D54" s="18">
-        <v>0.0020821094512939</v>
+        <v>2.0821094512939002E-3</v>
       </c>
       <c r="E54" s="19">
-        <v>0.204568147659301</v>
+        <v>0.20456814765930101</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2159,19 +2499,19 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C55" s="18">
-        <v>3.38554382324E-5</v>
+        <v>3.3855438232400001E-5</v>
       </c>
       <c r="D55" s="18">
-        <v>0.0010998249053955</v>
+        <v>1.0998249053955E-3</v>
       </c>
       <c r="E55" s="19">
-        <v>0.102904081344604</v>
+        <v>0.10290408134460401</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2195,19 +2535,19 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C56" s="21">
-        <v>2.830028533936E-4</v>
+        <v>2.8300285339360001E-4</v>
       </c>
       <c r="D56" s="21">
-        <v>6.630420684814E-4</v>
+        <v>6.6304206848139999E-4</v>
       </c>
       <c r="E56" s="22">
-        <v>0.0788099765777588</v>
+        <v>6.5809976577758805E-2</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2231,7 +2571,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>4</v>
@@ -2263,19 +2603,19 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D58" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E58" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2299,19 +2639,19 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C59" s="23">
-        <v>0.020460844039917</v>
+        <v>2.0460844039916999E-2</v>
       </c>
       <c r="D59" s="19">
-        <v>0.203956842422485</v>
+        <v>0.20395684242248499</v>
       </c>
       <c r="E59" s="19">
-        <v>2.05176901817321</v>
+        <v>2.0517690181732098</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2335,19 +2675,19 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C60" s="18">
-        <v>0.0103078914642334</v>
+        <v>1.03078914642334E-2</v>
       </c>
       <c r="D60" s="19">
         <v>0.102041006088256</v>
       </c>
       <c r="E60" s="19">
-        <v>1.01922488212585</v>
+        <v>1.0192248821258501</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2371,19 +2711,19 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="9">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C61" s="18">
-        <v>0.0051660537719727</v>
+        <v>5.1660537719726996E-3</v>
       </c>
       <c r="D61" s="19">
-        <v>0.0514068603515625</v>
+        <v>5.14068603515625E-2</v>
       </c>
       <c r="E61" s="19">
-        <v>0.509707927703857</v>
+        <v>0.50970792770385698</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2407,19 +2747,19 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C62" s="21">
-        <v>0.0026650428771973</v>
+        <v>2.6650428771972999E-3</v>
       </c>
       <c r="D62" s="22">
-        <v>0.0258681468963623</v>
+        <v>2.5868146896362298E-2</v>
       </c>
       <c r="E62" s="22">
-        <v>0.255983829498291</v>
+        <v>0.25598382949829102</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2443,7 +2783,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
@@ -2471,7 +2811,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
@@ -2499,7 +2839,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
@@ -2529,7 +2869,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
@@ -2557,19 +2897,19 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="7">
-        <v>5000.0</v>
+        <v>5000</v>
       </c>
       <c r="D67" s="7">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="E67" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -2593,13 +2933,13 @@
       <c r="Y67" s="24"/>
       <c r="Z67" s="24"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="21">
-        <v>0.0404069423675537</v>
+        <v>4.0406942367553697E-2</v>
       </c>
       <c r="D68" s="21">
         <v>0.574865102767944</v>
@@ -2629,28 +2969,28 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="21">
-        <v>9.89437103271E-5</v>
+        <v>9.8943710327100001E-5</v>
       </c>
       <c r="D69" s="21">
-        <v>0.0080890655517578</v>
+        <v>8.0890655517578004E-3</v>
       </c>
       <c r="E69" s="22">
-        <v>0.815552949905395</v>
+        <v>0.81555294990539495</v>
       </c>
       <c r="F69" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G69" s="7">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="H69" s="8">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2671,19 +3011,19 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="26">
-        <v>0.0408399105072021</v>
+        <v>3.9839910507202099E-2</v>
       </c>
       <c r="D70" s="21">
-        <v>0.407833814620971</v>
+        <v>0.397833814620971</v>
       </c>
       <c r="E70" s="22">
-        <v>4.05543009757995</v>
+        <v>4.0554300975799498</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -2707,7 +3047,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27"/>
@@ -2735,7 +3075,7 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
@@ -2763,7 +3103,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
@@ -2791,7 +3131,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
@@ -2819,7 +3159,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
@@ -2849,7 +3189,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -2877,7 +3217,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
@@ -2905,7 +3245,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
@@ -2933,7 +3273,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
@@ -2961,7 +3301,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
@@ -2989,7 +3329,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
@@ -3017,7 +3357,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
@@ -3045,7 +3385,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
@@ -3073,7 +3413,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
@@ -3101,7 +3441,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
@@ -3129,7 +3469,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -3157,7 +3497,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
@@ -3185,7 +3525,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -3213,7 +3553,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -3241,7 +3581,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -3269,7 +3609,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -3297,7 +3637,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -3325,7 +3665,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -3353,7 +3693,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -3381,7 +3721,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -3409,7 +3749,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -3437,7 +3777,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -3465,7 +3805,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -3493,7 +3833,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -3521,7 +3861,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -3549,7 +3889,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -3577,7 +3917,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -3605,7 +3945,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -3633,7 +3973,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -3661,7 +4001,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -3689,7 +4029,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
@@ -3717,7 +4057,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
@@ -3745,7 +4085,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
@@ -3773,7 +4113,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
@@ -3801,7 +4141,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
@@ -3829,7 +4169,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -3857,7 +4197,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
@@ -3885,7 +4225,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -3913,7 +4253,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
@@ -3941,7 +4281,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
@@ -3969,7 +4309,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -3997,7 +4337,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
@@ -4025,7 +4365,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
@@ -4053,7 +4393,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
@@ -4081,7 +4421,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
@@ -4109,7 +4449,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
@@ -4137,7 +4477,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
@@ -4165,7 +4505,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
@@ -4193,7 +4533,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
@@ -4221,7 +4561,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
@@ -4249,7 +4589,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
@@ -4277,7 +4617,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
@@ -4305,7 +4645,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
@@ -4333,7 +4673,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
@@ -4361,7 +4701,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
@@ -4389,7 +4729,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
@@ -4417,7 +4757,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
@@ -4445,7 +4785,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
@@ -4473,7 +4813,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
@@ -4501,7 +4841,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
@@ -4529,7 +4869,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
@@ -4557,7 +4897,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
@@ -4585,7 +4925,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
@@ -4613,7 +4953,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
@@ -4641,7 +4981,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
@@ -4669,7 +5009,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
@@ -4697,7 +5037,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
@@ -4725,7 +5065,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
@@ -4753,7 +5093,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
@@ -4781,7 +5121,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
@@ -4809,7 +5149,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
@@ -4837,7 +5177,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
@@ -4865,7 +5205,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
@@ -4893,7 +5233,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
@@ -4921,7 +5261,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
@@ -4949,7 +5289,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
@@ -4977,7 +5317,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
@@ -5005,7 +5345,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
@@ -5033,7 +5373,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
@@ -5061,7 +5401,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
@@ -5089,7 +5429,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
@@ -5117,7 +5457,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
@@ -5145,7 +5485,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
@@ -5173,7 +5513,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
@@ -5201,7 +5541,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
@@ -5229,7 +5569,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
@@ -5257,7 +5597,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
@@ -5285,7 +5625,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
@@ -5313,7 +5653,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
@@ -5341,7 +5681,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
@@ -5369,7 +5709,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
@@ -5397,7 +5737,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
@@ -5425,7 +5765,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
@@ -5453,7 +5793,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
@@ -5481,7 +5821,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
@@ -5509,7 +5849,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
@@ -5537,7 +5877,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
@@ -5565,7 +5905,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
@@ -5593,7 +5933,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
@@ -5621,7 +5961,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
@@ -5649,7 +5989,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
@@ -5677,7 +6017,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
@@ -5705,7 +6045,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
@@ -5733,7 +6073,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
@@ -5761,7 +6101,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
@@ -5789,7 +6129,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
@@ -5817,7 +6157,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
@@ -5845,7 +6185,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
@@ -5873,7 +6213,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
@@ -5901,7 +6241,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
@@ -5929,7 +6269,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
@@ -5957,7 +6297,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
@@ -5985,7 +6325,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
@@ -6013,7 +6353,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
@@ -6041,7 +6381,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
@@ -6069,7 +6409,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
@@ -6097,7 +6437,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
@@ -6125,7 +6465,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
@@ -6153,7 +6493,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1"/>
@@ -6181,7 +6521,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1"/>
@@ -6209,7 +6549,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1"/>
@@ -6237,7 +6577,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1"/>
@@ -6265,7 +6605,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1"/>
@@ -6293,7 +6633,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1"/>
@@ -6321,7 +6661,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="1"/>
@@ -6349,7 +6689,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1"/>
@@ -6377,7 +6717,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1"/>
@@ -6405,7 +6745,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1"/>
@@ -6433,7 +6773,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1"/>
@@ -6461,7 +6801,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1"/>
@@ -6489,7 +6829,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1"/>
@@ -6517,7 +6857,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="1"/>
@@ -6545,7 +6885,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1"/>
@@ -6573,7 +6913,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1"/>
@@ -6601,7 +6941,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1"/>
@@ -6629,7 +6969,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1"/>
@@ -6657,7 +6997,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1"/>
@@ -6685,7 +7025,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1"/>
@@ -6713,7 +7053,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="1"/>
@@ -6741,7 +7081,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1"/>
@@ -6769,7 +7109,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1"/>
@@ -6797,7 +7137,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1"/>
@@ -6825,7 +7165,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1"/>
@@ -6853,7 +7193,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1"/>
@@ -6881,7 +7221,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1"/>
@@ -6909,7 +7249,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="1"/>
@@ -6937,7 +7277,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1"/>
@@ -6965,7 +7305,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1"/>
@@ -6993,7 +7333,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1"/>
@@ -7021,7 +7361,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1"/>
@@ -7049,7 +7389,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1"/>
@@ -7077,7 +7417,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1"/>
@@ -7105,7 +7445,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="1"/>
@@ -7133,7 +7473,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1"/>
@@ -7161,7 +7501,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1"/>
@@ -7189,7 +7529,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1"/>
@@ -7217,7 +7557,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1"/>
@@ -7245,7 +7585,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1"/>
@@ -7273,7 +7613,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1"/>
@@ -7301,7 +7641,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="1"/>
@@ -7329,7 +7669,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1"/>
@@ -7357,7 +7697,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1"/>
@@ -7385,7 +7725,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1"/>
@@ -7413,7 +7753,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1"/>
@@ -7441,7 +7781,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1"/>
@@ -7469,7 +7809,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1"/>
@@ -7497,7 +7837,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="1"/>
@@ -7525,7 +7865,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1"/>
@@ -7553,7 +7893,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1"/>
@@ -7581,7 +7921,7 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1"/>
@@ -7609,7 +7949,7 @@
       <c r="Y245" s="1"/>
       <c r="Z245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1"/>
@@ -7637,7 +7977,7 @@
       <c r="Y246" s="1"/>
       <c r="Z246" s="1"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1"/>
@@ -7665,7 +8005,7 @@
       <c r="Y247" s="1"/>
       <c r="Z247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1"/>
@@ -7693,7 +8033,7 @@
       <c r="Y248" s="1"/>
       <c r="Z248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="1"/>
@@ -7721,7 +8061,7 @@
       <c r="Y249" s="1"/>
       <c r="Z249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="1"/>
@@ -7749,7 +8089,7 @@
       <c r="Y250" s="1"/>
       <c r="Z250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="1"/>
@@ -7777,7 +8117,7 @@
       <c r="Y251" s="1"/>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="1"/>
@@ -7805,7 +8145,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="1"/>
@@ -7833,7 +8173,7 @@
       <c r="Y253" s="1"/>
       <c r="Z253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="1"/>
@@ -7861,7 +8201,7 @@
       <c r="Y254" s="1"/>
       <c r="Z254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="1"/>
@@ -7889,7 +8229,7 @@
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="1"/>
@@ -7917,7 +8257,7 @@
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="1"/>
@@ -7945,7 +8285,7 @@
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="1"/>
@@ -7973,7 +8313,7 @@
       <c r="Y258" s="1"/>
       <c r="Z258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="1"/>
@@ -8001,7 +8341,7 @@
       <c r="Y259" s="1"/>
       <c r="Z259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="1"/>
@@ -8029,7 +8369,7 @@
       <c r="Y260" s="1"/>
       <c r="Z260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="1"/>
@@ -8057,7 +8397,7 @@
       <c r="Y261" s="1"/>
       <c r="Z261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="1"/>
@@ -8085,7 +8425,7 @@
       <c r="Y262" s="1"/>
       <c r="Z262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="1"/>
@@ -8113,7 +8453,7 @@
       <c r="Y263" s="1"/>
       <c r="Z263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="1"/>
@@ -8141,7 +8481,7 @@
       <c r="Y264" s="1"/>
       <c r="Z264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="1"/>
@@ -8169,7 +8509,7 @@
       <c r="Y265" s="1"/>
       <c r="Z265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="1"/>
@@ -8197,7 +8537,7 @@
       <c r="Y266" s="1"/>
       <c r="Z266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="1"/>
@@ -8225,7 +8565,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="1"/>
@@ -8253,7 +8593,7 @@
       <c r="Y268" s="1"/>
       <c r="Z268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="1"/>
@@ -8281,7 +8621,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="1"/>
@@ -8309,7 +8649,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="1"/>
@@ -8337,7 +8677,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="1"/>
@@ -8365,7 +8705,7 @@
       <c r="Y272" s="1"/>
       <c r="Z272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="1"/>
@@ -8393,7 +8733,7 @@
       <c r="Y273" s="1"/>
       <c r="Z273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="1"/>
@@ -8421,7 +8761,7 @@
       <c r="Y274" s="1"/>
       <c r="Z274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="1"/>
@@ -8449,735 +8789,733 @@
       <c r="Y275" s="1"/>
       <c r="Z275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>